--- a/results/mp/logistic/corona/confidence/168/desired-masking-0.1/avg_0.003_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/168/desired-masking-0.1/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="90">
   <si>
     <t>anchor score</t>
   </si>
@@ -52,99 +52,105 @@
     <t>fraud</t>
   </si>
   <si>
+    <t>warning</t>
+  </si>
+  <si>
     <t>crisis</t>
   </si>
   <si>
     <t>collapse</t>
   </si>
   <si>
+    <t>hell</t>
+  </si>
+  <si>
     <t>forced</t>
   </si>
   <si>
-    <t>lowest</t>
+    <t>falling</t>
   </si>
   <si>
     <t>problem</t>
   </si>
   <si>
-    <t>warning</t>
-  </si>
-  <si>
-    <t>died</t>
+    <t>shit</t>
+  </si>
+  <si>
+    <t>pressure</t>
+  </si>
+  <si>
+    <t>panic</t>
+  </si>
+  <si>
+    <t>sc</t>
+  </si>
+  <si>
+    <t>drop</t>
+  </si>
+  <si>
+    <t>shame</t>
   </si>
   <si>
     <t>fears</t>
   </si>
   <si>
-    <t>falling</t>
-  </si>
-  <si>
-    <t>sc</t>
-  </si>
-  <si>
     <t>recession</t>
   </si>
   <si>
-    <t>panic</t>
-  </si>
-  <si>
-    <t>drop</t>
-  </si>
-  <si>
     <t>fuck</t>
   </si>
   <si>
     <t>low</t>
   </si>
   <si>
-    <t>shit</t>
-  </si>
-  <si>
     <t>no</t>
   </si>
   <si>
-    <t>selfish</t>
-  </si>
-  <si>
-    <t>shame</t>
+    <t>cut</t>
   </si>
   <si>
     <t>emergency</t>
   </si>
   <si>
-    <t>cut</t>
-  </si>
-  <si>
     <t>lower</t>
   </si>
   <si>
     <t>avoid</t>
   </si>
   <si>
+    <t>empty</t>
+  </si>
+  <si>
     <t>stop</t>
   </si>
   <si>
+    <t>risk</t>
+  </si>
+  <si>
     <t>fight</t>
   </si>
   <si>
-    <t>empty</t>
-  </si>
-  <si>
     <t>demand</t>
   </si>
   <si>
+    <t>oil</t>
+  </si>
+  <si>
+    <t>co</t>
+  </si>
+  <si>
     <t>negative</t>
   </si>
   <si>
     <t>love</t>
   </si>
   <si>
+    <t>free</t>
+  </si>
+  <si>
     <t>interesting</t>
   </si>
   <si>
-    <t>free</t>
-  </si>
-  <si>
     <t>best</t>
   </si>
   <si>
@@ -157,36 +163,36 @@
     <t>hand</t>
   </si>
   <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
     <t>special</t>
   </si>
   <si>
-    <t>strong</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
     <t>heroes</t>
   </si>
   <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
     <t>positive</t>
   </si>
   <si>
-    <t>confidence</t>
-  </si>
-  <si>
     <t>thanks</t>
   </si>
   <si>
@@ -199,67 +205,85 @@
     <t>friends</t>
   </si>
   <si>
+    <t>won</t>
+  </si>
+  <si>
     <t>fresh</t>
   </si>
   <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>team</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>healthy</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
     <t>relief</t>
   </si>
   <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>won</t>
-  </si>
-  <si>
-    <t>like</t>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>care</t>
   </si>
   <si>
     <t>giving</t>
   </si>
   <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>ready</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>healthy</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
     <t>important</t>
   </si>
   <si>
+    <t>clean</t>
+  </si>
+  <si>
+    <t>alert</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
     <t>protect</t>
   </si>
   <si>
-    <t>alert</t>
+    <t>increase</t>
   </si>
   <si>
     <t>sure</t>
   </si>
   <si>
-    <t>increase</t>
+    <t>helping</t>
+  </si>
+  <si>
+    <t>you</t>
   </si>
 </sst>
 </file>
@@ -617,7 +641,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q44"/>
+  <dimension ref="A1:Q50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -625,10 +649,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="J1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -707,7 +731,7 @@
         <v>2</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K3">
         <v>0.9782608695652174</v>
@@ -757,16 +781,16 @@
         <v>2</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K4">
-        <v>0.9696969696969697</v>
+        <v>0.9583333333333334</v>
       </c>
       <c r="L4">
-        <v>32</v>
+        <v>115</v>
       </c>
       <c r="M4">
-        <v>32</v>
+        <v>115</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -778,7 +802,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -786,13 +810,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.918918918918919</v>
+        <v>0.8918918918918919</v>
       </c>
       <c r="C5">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D5">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -804,19 +828,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K5">
-        <v>0.9583333333333334</v>
+        <v>0.9393939393939394</v>
       </c>
       <c r="L5">
-        <v>115</v>
+        <v>31</v>
       </c>
       <c r="M5">
-        <v>115</v>
+        <v>31</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -828,7 +852,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -857,16 +881,16 @@
         <v>4</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K6">
-        <v>0.9491525423728814</v>
+        <v>0.9322033898305084</v>
       </c>
       <c r="L6">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="M6">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -878,7 +902,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -886,13 +910,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.8595890410958904</v>
+        <v>0.88</v>
       </c>
       <c r="C7">
-        <v>251</v>
+        <v>22</v>
       </c>
       <c r="D7">
-        <v>251</v>
+        <v>22</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -904,10 +928,10 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>41</v>
+        <v>3</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K7">
         <v>0.9302325581395349</v>
@@ -936,13 +960,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.8333333333333334</v>
+        <v>0.8698630136986302</v>
       </c>
       <c r="C8">
-        <v>25</v>
+        <v>254</v>
       </c>
       <c r="D8">
-        <v>25</v>
+        <v>254</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -954,10 +978,10 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>5</v>
+        <v>38</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K8">
         <v>0.9230769230769231</v>
@@ -986,13 +1010,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.8275862068965517</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="C9">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1007,16 +1031,16 @@
         <v>5</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K9">
-        <v>0.9190600522193212</v>
+        <v>0.9138381201044387</v>
       </c>
       <c r="L9">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="M9">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1028,7 +1052,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1057,16 +1081,16 @@
         <v>4</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K10">
-        <v>0.9166666666666666</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="L10">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="M10">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1078,7 +1102,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1086,13 +1110,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.8</v>
+        <v>0.7931034482758621</v>
       </c>
       <c r="C11">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D11">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1107,16 +1131,16 @@
         <v>6</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K11">
-        <v>0.9090909090909091</v>
+        <v>0.8962264150943396</v>
       </c>
       <c r="L11">
-        <v>20</v>
+        <v>95</v>
       </c>
       <c r="M11">
-        <v>20</v>
+        <v>95</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1128,7 +1152,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1136,13 +1160,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.8</v>
+        <v>0.775</v>
       </c>
       <c r="C12">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="D12">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1154,19 +1178,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K12">
-        <v>0.9014084507042254</v>
+        <v>0.8943661971830986</v>
       </c>
       <c r="L12">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="M12">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1178,7 +1202,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1186,13 +1210,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.7692307692307693</v>
+        <v>0.7666666666666667</v>
       </c>
       <c r="C13">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D13">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1204,19 +1228,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K13">
-        <v>0.8936170212765957</v>
+        <v>0.89375</v>
       </c>
       <c r="L13">
-        <v>42</v>
+        <v>143</v>
       </c>
       <c r="M13">
-        <v>42</v>
+        <v>143</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1228,7 +1252,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1236,13 +1260,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.7450980392156863</v>
+        <v>0.717948717948718</v>
       </c>
       <c r="C14">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="D14">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1254,10 +1278,10 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K14">
         <v>0.8928571428571429</v>
@@ -1286,13 +1310,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.725</v>
+        <v>0.7037037037037037</v>
       </c>
       <c r="C15">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="D15">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1304,19 +1328,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K15">
-        <v>0.8875</v>
+        <v>0.890625</v>
       </c>
       <c r="L15">
-        <v>142</v>
+        <v>114</v>
       </c>
       <c r="M15">
-        <v>142</v>
+        <v>114</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1328,7 +1352,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1336,13 +1360,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.7195767195767195</v>
+        <v>0.6918604651162791</v>
       </c>
       <c r="C16">
-        <v>136</v>
+        <v>357</v>
       </c>
       <c r="D16">
-        <v>136</v>
+        <v>357</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1354,19 +1378,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>53</v>
+        <v>159</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K16">
-        <v>0.8867924528301887</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="L16">
-        <v>94</v>
+        <v>32</v>
       </c>
       <c r="M16">
-        <v>94</v>
+        <v>32</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1378,7 +1402,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1386,13 +1410,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.7096774193548387</v>
+        <v>0.6825396825396826</v>
       </c>
       <c r="C17">
-        <v>22</v>
+        <v>129</v>
       </c>
       <c r="D17">
-        <v>22</v>
+        <v>129</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1404,19 +1428,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>9</v>
+        <v>60</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K17">
-        <v>0.8828125</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="L17">
-        <v>113</v>
+        <v>32</v>
       </c>
       <c r="M17">
-        <v>113</v>
+        <v>32</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1428,7 +1452,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>15</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1436,13 +1460,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.7093023255813954</v>
+        <v>0.6779661016949152</v>
       </c>
       <c r="C18">
-        <v>366</v>
+        <v>40</v>
       </c>
       <c r="D18">
-        <v>366</v>
+        <v>40</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1454,19 +1478,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>150</v>
+        <v>19</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K18">
-        <v>0.8793103448275862</v>
+        <v>0.8723404255319149</v>
       </c>
       <c r="L18">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="M18">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1478,7 +1502,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1486,13 +1510,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.6949152542372882</v>
+        <v>0.6756756756756757</v>
       </c>
       <c r="C19">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="D19">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1504,19 +1528,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K19">
-        <v>0.8611111111111112</v>
+        <v>0.8620689655172413</v>
       </c>
       <c r="L19">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="M19">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1528,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1539,10 +1563,10 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="C20">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="D20">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1554,10 +1578,10 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K20">
         <v>0.8536585365853658</v>
@@ -1586,13 +1610,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.6442953020134228</v>
+        <v>0.6451612903225806</v>
       </c>
       <c r="C21">
-        <v>96</v>
+        <v>20</v>
       </c>
       <c r="D21">
-        <v>96</v>
+        <v>20</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1604,10 +1628,10 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K21">
         <v>0.8253968253968254</v>
@@ -1657,7 +1681,7 @@
         <v>14</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K22">
         <v>0.825</v>
@@ -1686,13 +1710,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.5777777777777777</v>
+        <v>0.6308724832214765</v>
       </c>
       <c r="C23">
-        <v>208</v>
+        <v>94</v>
       </c>
       <c r="D23">
-        <v>208</v>
+        <v>94</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1704,10 +1728,10 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>152</v>
+        <v>55</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="K23">
         <v>0.8214285714285714</v>
@@ -1736,13 +1760,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.5555555555555556</v>
+        <v>0.6055555555555555</v>
       </c>
       <c r="C24">
-        <v>20</v>
+        <v>218</v>
       </c>
       <c r="D24">
-        <v>20</v>
+        <v>218</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1754,19 +1778,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>16</v>
+        <v>142</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K24">
-        <v>0.7916666666666666</v>
+        <v>0.7948717948717948</v>
       </c>
       <c r="L24">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="M24">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1778,7 +1802,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1786,13 +1810,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.5135135135135135</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="C25">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="D25">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1804,19 +1828,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="K25">
-        <v>0.78</v>
+        <v>0.7916666666666666</v>
       </c>
       <c r="L25">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M25">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1828,7 +1852,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1836,13 +1860,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.4933333333333333</v>
+        <v>0.52</v>
       </c>
       <c r="C26">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D26">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1854,10 +1878,10 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="K26">
         <v>0.7777777777777778</v>
@@ -1886,13 +1910,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.4727272727272727</v>
+        <v>0.5178571428571429</v>
       </c>
       <c r="C27">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D27">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1904,19 +1928,19 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="K27">
-        <v>0.7692307692307693</v>
+        <v>0.7705882352941177</v>
       </c>
       <c r="L27">
-        <v>30</v>
+        <v>262</v>
       </c>
       <c r="M27">
-        <v>30</v>
+        <v>262</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1928,7 +1952,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>9</v>
+        <v>78</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1936,38 +1960,38 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.4642857142857143</v>
+        <v>0.4909090909090909</v>
       </c>
       <c r="C28">
+        <v>27</v>
+      </c>
+      <c r="D28">
+        <v>27</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28" t="b">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>28</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="K28">
+        <v>0.7428571428571429</v>
+      </c>
+      <c r="L28">
         <v>26</v>
       </c>
-      <c r="D28">
+      <c r="M28">
         <v>26</v>
       </c>
-      <c r="E28">
-        <v>0</v>
-      </c>
-      <c r="F28">
-        <v>1</v>
-      </c>
-      <c r="G28" t="b">
-        <v>0</v>
-      </c>
-      <c r="H28">
-        <v>30</v>
-      </c>
-      <c r="J28" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="K28">
-        <v>0.7617647058823529</v>
-      </c>
-      <c r="L28">
-        <v>259</v>
-      </c>
-      <c r="M28">
-        <v>259</v>
-      </c>
       <c r="N28">
         <v>1</v>
       </c>
@@ -1978,7 +2002,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>81</v>
+        <v>9</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -1986,13 +2010,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.4363636363636363</v>
+        <v>0.4</v>
       </c>
       <c r="C29">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="D29">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2004,19 +2028,19 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="K29">
-        <v>0.7272727272727273</v>
+        <v>0.735593220338983</v>
       </c>
       <c r="L29">
-        <v>24</v>
+        <v>217</v>
       </c>
       <c r="M29">
-        <v>24</v>
+        <v>217</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -2028,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>9</v>
+        <v>78</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2036,13 +2060,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.3373015873015873</v>
+        <v>0.373015873015873</v>
       </c>
       <c r="C30">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="D30">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2054,19 +2078,19 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="K30">
-        <v>0.7254237288135593</v>
+        <v>0.7307692307692307</v>
       </c>
       <c r="L30">
-        <v>214</v>
+        <v>19</v>
       </c>
       <c r="M30">
-        <v>214</v>
+        <v>19</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -2078,7 +2102,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>81</v>
+        <v>7</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2086,13 +2110,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.275</v>
+        <v>0.3246753246753247</v>
       </c>
       <c r="C31">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D31">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2104,19 +2128,19 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="K31">
-        <v>0.7142857142857143</v>
+        <v>0.7196652719665272</v>
       </c>
       <c r="L31">
-        <v>25</v>
+        <v>172</v>
       </c>
       <c r="M31">
-        <v>25</v>
+        <v>172</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -2128,7 +2152,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>10</v>
+        <v>67</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2136,13 +2160,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.2111111111111111</v>
+        <v>0.3125</v>
       </c>
       <c r="C32">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D32">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2154,19 +2178,19 @@
         <v>0</v>
       </c>
       <c r="H32">
+        <v>55</v>
+      </c>
+      <c r="J32" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="J32" s="1" t="s">
-        <v>69</v>
-      </c>
       <c r="K32">
-        <v>0.7142857142857143</v>
+        <v>0.7058823529411765</v>
       </c>
       <c r="L32">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="M32">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2178,7 +2202,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -2186,13 +2210,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.1340482573726542</v>
+        <v>0.1876675603217158</v>
       </c>
       <c r="C33">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="D33">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2204,19 +2228,19 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>323</v>
+        <v>303</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K33">
-        <v>0.7071129707112971</v>
+        <v>0.7037037037037037</v>
       </c>
       <c r="L33">
-        <v>169</v>
+        <v>19</v>
       </c>
       <c r="M33">
-        <v>169</v>
+        <v>19</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2228,12 +2252,36 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>70</v>
+        <v>8</v>
       </c>
     </row>
     <row r="34" spans="1:17">
+      <c r="A34" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B34">
+        <v>0.06333333333333334</v>
+      </c>
+      <c r="C34">
+        <v>19</v>
+      </c>
+      <c r="D34">
+        <v>19</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34" t="b">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>281</v>
+      </c>
       <c r="J34" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K34">
         <v>0.7037037037037037</v>
@@ -2258,11 +2306,35 @@
       </c>
     </row>
     <row r="35" spans="1:17">
+      <c r="A35" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B35">
+        <v>0.007085346215780998</v>
+      </c>
+      <c r="C35">
+        <v>22</v>
+      </c>
+      <c r="D35">
+        <v>24</v>
+      </c>
+      <c r="E35">
+        <v>0.08</v>
+      </c>
+      <c r="F35">
+        <v>0.92</v>
+      </c>
+      <c r="G35" t="b">
+        <v>1</v>
+      </c>
+      <c r="H35">
+        <v>3083</v>
+      </c>
       <c r="J35" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="K35">
-        <v>0.6862745098039216</v>
+        <v>0.7</v>
       </c>
       <c r="L35">
         <v>35</v>
@@ -2280,21 +2352,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="36" spans="1:17">
       <c r="J36" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="K36">
-        <v>0.6857142857142857</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="L36">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="M36">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2306,21 +2378,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="37" spans="1:17">
       <c r="J37" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K37">
-        <v>0.6808510638297872</v>
+        <v>0.6914893617021277</v>
       </c>
       <c r="L37">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M37">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2332,21 +2404,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="38" spans="1:17">
       <c r="J38" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K38">
-        <v>0.6741573033707865</v>
+        <v>0.6785714285714286</v>
       </c>
       <c r="L38">
-        <v>60</v>
+        <v>19</v>
       </c>
       <c r="M38">
-        <v>60</v>
+        <v>19</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2358,21 +2430,21 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>29</v>
+        <v>9</v>
       </c>
     </row>
     <row r="39" spans="1:17">
       <c r="J39" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="K39">
-        <v>0.6461538461538462</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="L39">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="M39">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2384,21 +2456,21 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="40" spans="1:17">
       <c r="J40" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="K40">
-        <v>0.6</v>
+        <v>0.6404494382022472</v>
       </c>
       <c r="L40">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="M40">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2410,21 +2482,21 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>18</v>
+        <v>32</v>
       </c>
     </row>
     <row r="41" spans="1:17">
       <c r="J41" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K41">
-        <v>0.547945205479452</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="L41">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="M41">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2436,21 +2508,21 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>33</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42" spans="1:17">
       <c r="J42" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K42">
-        <v>0.5476190476190477</v>
+        <v>0.6222222222222222</v>
       </c>
       <c r="L42">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="M42">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2462,21 +2534,21 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="43" spans="1:17">
       <c r="J43" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K43">
-        <v>0.5</v>
+        <v>0.6129032258064516</v>
       </c>
       <c r="L43">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="M43">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2488,21 +2560,21 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44" spans="1:17">
       <c r="J44" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="K44">
-        <v>0.5</v>
+        <v>0.5476190476190477</v>
       </c>
       <c r="L44">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="M44">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2514,7 +2586,163 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>39</v>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17">
+      <c r="J45" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="K45">
+        <v>0.543859649122807</v>
+      </c>
+      <c r="L45">
+        <v>31</v>
+      </c>
+      <c r="M45">
+        <v>31</v>
+      </c>
+      <c r="N45">
+        <v>1</v>
+      </c>
+      <c r="O45">
+        <v>0</v>
+      </c>
+      <c r="P45" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q45">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17">
+      <c r="J46" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="K46">
+        <v>0.4931506849315068</v>
+      </c>
+      <c r="L46">
+        <v>36</v>
+      </c>
+      <c r="M46">
+        <v>36</v>
+      </c>
+      <c r="N46">
+        <v>1</v>
+      </c>
+      <c r="O46">
+        <v>0</v>
+      </c>
+      <c r="P46" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q46">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17">
+      <c r="J47" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="K47">
+        <v>0.4871794871794872</v>
+      </c>
+      <c r="L47">
+        <v>38</v>
+      </c>
+      <c r="M47">
+        <v>38</v>
+      </c>
+      <c r="N47">
+        <v>1</v>
+      </c>
+      <c r="O47">
+        <v>0</v>
+      </c>
+      <c r="P47" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q47">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17">
+      <c r="J48" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="K48">
+        <v>0.484375</v>
+      </c>
+      <c r="L48">
+        <v>31</v>
+      </c>
+      <c r="M48">
+        <v>31</v>
+      </c>
+      <c r="N48">
+        <v>1</v>
+      </c>
+      <c r="O48">
+        <v>0</v>
+      </c>
+      <c r="P48" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q48">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="49" spans="10:17">
+      <c r="J49" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="K49">
+        <v>0.4067796610169492</v>
+      </c>
+      <c r="L49">
+        <v>24</v>
+      </c>
+      <c r="M49">
+        <v>24</v>
+      </c>
+      <c r="N49">
+        <v>1</v>
+      </c>
+      <c r="O49">
+        <v>0</v>
+      </c>
+      <c r="P49" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q49">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="50" spans="10:17">
+      <c r="J50" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="K50">
+        <v>0.02668890742285238</v>
+      </c>
+      <c r="L50">
+        <v>32</v>
+      </c>
+      <c r="M50">
+        <v>33</v>
+      </c>
+      <c r="N50">
+        <v>0.97</v>
+      </c>
+      <c r="O50">
+        <v>0.03000000000000003</v>
+      </c>
+      <c r="P50" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q50">
+        <v>1167</v>
       </c>
     </row>
   </sheetData>
